--- a/Libary/E842_I.xlsx
+++ b/Libary/E842_I.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\!XJ\AI-Meter_develop\Libary\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\!XJ\Mea-Auto_develop\Libary\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,6 +25,58 @@
     <author>Alexandr</author>
   </authors>
   <commentList>
+    <comment ref="A17" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="7"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">Техническое описание и инструкция по эксплуатации (Внешторгиздат. Изд. №III424/I)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="7"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Время прогрева, мин…….5</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="7"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+49501860.3.0009 МП</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="7"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+- время установления рабочего режима, мин
+Е842А………....5;
+Е842С ..........10; 
+</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="N20" authorId="0" shapeId="0">
       <text>
         <r>
@@ -44,7 +96,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="51">
   <si>
     <t>перетворювача</t>
   </si>
@@ -122,9 +174,6 @@
   </si>
   <si>
     <t>1. Зовнішній огляд:</t>
-  </si>
-  <si>
-    <t>3. Опробування приладу</t>
   </si>
   <si>
     <t>Провідність схеми</t>
@@ -140,9 +189,6 @@
     <t>X</t>
   </si>
   <si>
-    <t>X/19-8A</t>
-  </si>
-  <si>
     <t>Ф4102/1-1M</t>
   </si>
   <si>
@@ -178,9 +224,6 @@
     <t>Висновок:</t>
   </si>
   <si>
-    <t xml:space="preserve"> придатний  </t>
-  </si>
-  <si>
     <t>Підпис</t>
   </si>
   <si>
@@ -206,6 +249,9 @@
   </si>
   <si>
     <t>45 ÷ 65 Hz</t>
+  </si>
+  <si>
+    <t>3. Опробування приладу:</t>
   </si>
 </sst>
 </file>
@@ -216,7 +262,7 @@
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -307,6 +353,21 @@
     </font>
     <font>
       <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="7"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
       <family val="2"/>
@@ -551,46 +612,28 @@
     <xf numFmtId="165" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -611,18 +654,84 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -632,9 +741,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -650,91 +756,46 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1020,43 +1081,44 @@
   <dimension ref="A1:W146"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScale="180" zoomScaleNormal="100" zoomScalePageLayoutView="180" workbookViewId="0">
-      <selection activeCell="A63" sqref="A63:V63"/>
+      <selection activeCell="D64" sqref="D64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="22" width="4.140625" style="2" customWidth="1"/>
+    <col min="1" max="21" width="4.140625" style="2" customWidth="1"/>
+    <col min="22" max="22" width="5.140625" style="2" customWidth="1"/>
     <col min="23" max="23" width="4" style="2" customWidth="1"/>
     <col min="24" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="70" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="54"/>
-      <c r="L1" s="57" t="s">
-        <v>31</v>
-      </c>
-      <c r="M1" s="57"/>
-      <c r="N1" s="57"/>
-      <c r="O1" s="57"/>
-      <c r="P1" s="57"/>
-      <c r="Q1" s="57"/>
-      <c r="R1" s="57"/>
-      <c r="S1" s="57"/>
-      <c r="T1" s="57"/>
-      <c r="U1" s="57"/>
-      <c r="V1" s="57"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="70"/>
+      <c r="L1" s="72" t="s">
+        <v>29</v>
+      </c>
+      <c r="M1" s="72"/>
+      <c r="N1" s="72"/>
+      <c r="O1" s="72"/>
+      <c r="P1" s="72"/>
+      <c r="Q1" s="72"/>
+      <c r="R1" s="72"/>
+      <c r="S1" s="72"/>
+      <c r="T1" s="72"/>
+      <c r="U1" s="72"/>
+      <c r="V1" s="72"/>
       <c r="W1" s="1"/>
     </row>
     <row r="2" spans="1:23" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1085,40 +1147,42 @@
       <c r="W2" s="1"/>
     </row>
     <row r="3" spans="1:23" s="15" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="60" t="s">
+      <c r="A3" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="61"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="62" t="s">
+      <c r="B3" s="76"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="62" t="s">
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="K3" s="62"/>
-      <c r="L3" s="49" t="s">
-        <v>48</v>
-      </c>
-      <c r="M3" s="49"/>
-      <c r="N3" s="50"/>
-      <c r="O3" s="50"/>
-      <c r="P3" s="62" t="s">
+      <c r="K3" s="29"/>
+      <c r="L3" s="67" t="s">
+        <v>45</v>
+      </c>
+      <c r="M3" s="67"/>
+      <c r="N3" s="68" t="s">
+        <v>29</v>
+      </c>
+      <c r="O3" s="68"/>
+      <c r="P3" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="Q3" s="62"/>
-      <c r="R3" s="50" t="s">
-        <v>30</v>
-      </c>
-      <c r="S3" s="50"/>
-      <c r="T3" s="50"/>
-      <c r="U3" s="50"/>
-      <c r="V3" s="53"/>
+      <c r="Q3" s="29"/>
+      <c r="R3" s="68" t="s">
+        <v>29</v>
+      </c>
+      <c r="S3" s="68"/>
+      <c r="T3" s="68"/>
+      <c r="U3" s="68"/>
+      <c r="V3" s="69"/>
       <c r="W3" s="18"/>
     </row>
     <row r="4" spans="1:23" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1148,35 +1212,35 @@
     </row>
     <row r="5" spans="1:23" s="15" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
-      <c r="B5" s="58" t="s">
+      <c r="B5" s="73" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="59"/>
-      <c r="D5" s="59"/>
+      <c r="C5" s="74"/>
+      <c r="D5" s="74"/>
       <c r="E5" s="28">
         <v>1</v>
       </c>
-      <c r="F5" s="58" t="s">
-        <v>38</v>
-      </c>
-      <c r="G5" s="59"/>
-      <c r="H5" s="59"/>
+      <c r="F5" s="73" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5" s="74"/>
+      <c r="H5" s="74"/>
       <c r="I5" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="J5" s="58"/>
-      <c r="K5" s="59"/>
-      <c r="L5" s="59"/>
+        <v>29</v>
+      </c>
+      <c r="J5" s="73"/>
+      <c r="K5" s="74"/>
+      <c r="L5" s="74"/>
       <c r="M5" s="20"/>
-      <c r="N5" s="58"/>
-      <c r="O5" s="59"/>
-      <c r="P5" s="59"/>
+      <c r="N5" s="73"/>
+      <c r="O5" s="74"/>
+      <c r="P5" s="74"/>
       <c r="Q5" s="20"/>
-      <c r="R5" s="63" t="s">
-        <v>27</v>
-      </c>
-      <c r="S5" s="64"/>
-      <c r="T5" s="64"/>
+      <c r="R5" s="77" t="s">
+        <v>26</v>
+      </c>
+      <c r="S5" s="78"/>
+      <c r="T5" s="78"/>
       <c r="U5" s="21">
         <v>2</v>
       </c>
@@ -1192,53 +1256,53 @@
     </row>
     <row r="7" spans="1:23" s="15" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
-      <c r="B7" s="55" t="s">
+      <c r="B7" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="55"/>
-      <c r="D7" s="55"/>
-      <c r="E7" s="55"/>
-      <c r="F7" s="55"/>
-      <c r="G7" s="55"/>
-      <c r="H7" s="55"/>
-      <c r="I7" s="55"/>
-      <c r="N7" s="55" t="s">
+      <c r="C7" s="71"/>
+      <c r="D7" s="71"/>
+      <c r="E7" s="71"/>
+      <c r="F7" s="71"/>
+      <c r="G7" s="71"/>
+      <c r="H7" s="71"/>
+      <c r="I7" s="71"/>
+      <c r="N7" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="O7" s="55"/>
-      <c r="P7" s="55"/>
-      <c r="Q7" s="55"/>
-      <c r="R7" s="55"/>
-      <c r="S7" s="55"/>
-      <c r="T7" s="55"/>
-      <c r="U7" s="55"/>
+      <c r="O7" s="71"/>
+      <c r="P7" s="71"/>
+      <c r="Q7" s="71"/>
+      <c r="R7" s="71"/>
+      <c r="S7" s="71"/>
+      <c r="T7" s="71"/>
+      <c r="U7" s="71"/>
       <c r="V7" s="6"/>
     </row>
     <row r="8" spans="1:23" s="15" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="56" t="s">
+      <c r="B8" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="56"/>
-      <c r="D8" s="56"/>
-      <c r="E8" s="56"/>
-      <c r="F8" s="56" t="s">
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="G8" s="56"/>
-      <c r="H8" s="56"/>
-      <c r="I8" s="56"/>
-      <c r="N8" s="56" t="s">
+      <c r="G8" s="34"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="34"/>
+      <c r="N8" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="O8" s="56"/>
-      <c r="P8" s="56"/>
-      <c r="Q8" s="56"/>
-      <c r="R8" s="56" t="s">
+      <c r="O8" s="34"/>
+      <c r="P8" s="34"/>
+      <c r="Q8" s="34"/>
+      <c r="R8" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="S8" s="56"/>
-      <c r="T8" s="56"/>
-      <c r="U8" s="56"/>
+      <c r="S8" s="34"/>
+      <c r="T8" s="34"/>
+      <c r="U8" s="34"/>
     </row>
     <row r="9" spans="1:23" s="15" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="11" t="s">
@@ -1247,28 +1311,28 @@
       <c r="C9" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="69" t="s">
+      <c r="D9" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="69"/>
-      <c r="F9" s="66" t="s">
-        <v>49</v>
-      </c>
-      <c r="G9" s="67"/>
-      <c r="H9" s="67"/>
-      <c r="I9" s="68"/>
-      <c r="N9" s="76" t="s">
+      <c r="E9" s="44"/>
+      <c r="F9" s="51" t="s">
+        <v>46</v>
+      </c>
+      <c r="G9" s="52"/>
+      <c r="H9" s="52"/>
+      <c r="I9" s="53"/>
+      <c r="N9" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="O9" s="77"/>
-      <c r="P9" s="77"/>
-      <c r="Q9" s="78"/>
-      <c r="R9" s="51">
+      <c r="O9" s="46"/>
+      <c r="P9" s="46"/>
+      <c r="Q9" s="47"/>
+      <c r="R9" s="55">
         <v>556621</v>
       </c>
-      <c r="S9" s="51"/>
-      <c r="T9" s="51"/>
-      <c r="U9" s="52"/>
+      <c r="S9" s="55"/>
+      <c r="T9" s="55"/>
+      <c r="U9" s="56"/>
     </row>
     <row r="10" spans="1:23" s="15" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="11" t="s">
@@ -1281,24 +1345,24 @@
         <v>9</v>
       </c>
       <c r="E10" s="65"/>
-      <c r="F10" s="66" t="s">
-        <v>50</v>
-      </c>
-      <c r="G10" s="67"/>
-      <c r="H10" s="67"/>
-      <c r="I10" s="68"/>
-      <c r="N10" s="79" t="s">
-        <v>32</v>
-      </c>
-      <c r="O10" s="80"/>
-      <c r="P10" s="80"/>
-      <c r="Q10" s="81"/>
-      <c r="R10" s="51" t="s">
-        <v>33</v>
-      </c>
-      <c r="S10" s="51"/>
-      <c r="T10" s="51"/>
-      <c r="U10" s="52"/>
+      <c r="F10" s="51" t="s">
+        <v>47</v>
+      </c>
+      <c r="G10" s="52"/>
+      <c r="H10" s="52"/>
+      <c r="I10" s="53"/>
+      <c r="N10" s="48" t="s">
+        <v>30</v>
+      </c>
+      <c r="O10" s="49"/>
+      <c r="P10" s="49"/>
+      <c r="Q10" s="50"/>
+      <c r="R10" s="55" t="s">
+        <v>31</v>
+      </c>
+      <c r="S10" s="55"/>
+      <c r="T10" s="55"/>
+      <c r="U10" s="56"/>
     </row>
     <row r="11" spans="1:23" s="15" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="12" t="s">
@@ -1307,24 +1371,24 @@
       <c r="C11" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="69" t="s">
+      <c r="D11" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="69"/>
-      <c r="F11" s="66" t="s">
-        <v>51</v>
-      </c>
-      <c r="G11" s="67"/>
-      <c r="H11" s="67"/>
-      <c r="I11" s="68"/>
-      <c r="N11" s="79"/>
-      <c r="O11" s="80"/>
-      <c r="P11" s="80"/>
-      <c r="Q11" s="81"/>
-      <c r="R11" s="51"/>
-      <c r="S11" s="51"/>
-      <c r="T11" s="51"/>
-      <c r="U11" s="52"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="51" t="s">
+        <v>48</v>
+      </c>
+      <c r="G11" s="52"/>
+      <c r="H11" s="52"/>
+      <c r="I11" s="53"/>
+      <c r="N11" s="48"/>
+      <c r="O11" s="49"/>
+      <c r="P11" s="49"/>
+      <c r="Q11" s="50"/>
+      <c r="R11" s="55"/>
+      <c r="S11" s="55"/>
+      <c r="T11" s="55"/>
+      <c r="U11" s="56"/>
     </row>
     <row r="12" spans="1:23" s="15" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="11" t="s">
@@ -1333,42 +1397,42 @@
       <c r="C12" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="69" t="s">
+      <c r="D12" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="69"/>
-      <c r="F12" s="66" t="s">
-        <v>52</v>
-      </c>
-      <c r="G12" s="67"/>
-      <c r="H12" s="67"/>
-      <c r="I12" s="68"/>
-      <c r="N12" s="79"/>
-      <c r="O12" s="80"/>
-      <c r="P12" s="80"/>
-      <c r="Q12" s="81"/>
-      <c r="R12" s="51"/>
-      <c r="S12" s="51"/>
-      <c r="T12" s="51"/>
-      <c r="U12" s="52"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="51" t="s">
+        <v>49</v>
+      </c>
+      <c r="G12" s="52"/>
+      <c r="H12" s="52"/>
+      <c r="I12" s="53"/>
+      <c r="N12" s="48"/>
+      <c r="O12" s="49"/>
+      <c r="P12" s="49"/>
+      <c r="Q12" s="50"/>
+      <c r="R12" s="55"/>
+      <c r="S12" s="55"/>
+      <c r="T12" s="55"/>
+      <c r="U12" s="56"/>
     </row>
     <row r="13" spans="1:23" s="15" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="22"/>
       <c r="C13" s="23"/>
-      <c r="D13" s="84"/>
-      <c r="E13" s="84"/>
-      <c r="F13" s="85"/>
-      <c r="G13" s="86"/>
-      <c r="H13" s="86"/>
-      <c r="I13" s="87"/>
-      <c r="N13" s="70"/>
-      <c r="O13" s="71"/>
-      <c r="P13" s="71"/>
-      <c r="Q13" s="72"/>
-      <c r="R13" s="71"/>
-      <c r="S13" s="71"/>
-      <c r="T13" s="71"/>
-      <c r="U13" s="72"/>
+      <c r="D13" s="60"/>
+      <c r="E13" s="60"/>
+      <c r="F13" s="61"/>
+      <c r="G13" s="62"/>
+      <c r="H13" s="62"/>
+      <c r="I13" s="63"/>
+      <c r="N13" s="66"/>
+      <c r="O13" s="58"/>
+      <c r="P13" s="58"/>
+      <c r="Q13" s="59"/>
+      <c r="R13" s="58"/>
+      <c r="S13" s="58"/>
+      <c r="T13" s="58"/>
+      <c r="U13" s="59"/>
     </row>
     <row r="14" spans="1:23" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E14" s="6"/>
@@ -1378,88 +1442,88 @@
       <c r="I14" s="6"/>
     </row>
     <row r="15" spans="1:23" s="14" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="82" t="s">
+      <c r="A15" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="82"/>
-      <c r="C15" s="82"/>
-      <c r="D15" s="82"/>
-      <c r="E15" s="82"/>
-      <c r="F15" s="82"/>
-      <c r="G15" s="82"/>
-      <c r="H15" s="82"/>
-      <c r="I15" s="82"/>
-      <c r="J15" s="82"/>
-      <c r="K15" s="82"/>
-      <c r="L15" s="82"/>
-      <c r="M15" s="82"/>
-      <c r="N15" s="82"/>
-      <c r="O15" s="82"/>
-      <c r="P15" s="82"/>
-      <c r="Q15" s="82"/>
-      <c r="R15" s="82"/>
-      <c r="S15" s="83" t="s">
+      <c r="B15" s="54"/>
+      <c r="C15" s="54"/>
+      <c r="D15" s="54"/>
+      <c r="E15" s="54"/>
+      <c r="F15" s="54"/>
+      <c r="G15" s="54"/>
+      <c r="H15" s="54"/>
+      <c r="I15" s="54"/>
+      <c r="J15" s="54"/>
+      <c r="K15" s="54"/>
+      <c r="L15" s="54"/>
+      <c r="M15" s="54"/>
+      <c r="N15" s="54"/>
+      <c r="O15" s="54"/>
+      <c r="P15" s="54"/>
+      <c r="Q15" s="54"/>
+      <c r="R15" s="54"/>
+      <c r="S15" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="T15" s="83"/>
-      <c r="U15" s="83"/>
-      <c r="V15" s="83"/>
+      <c r="T15" s="57"/>
+      <c r="U15" s="57"/>
+      <c r="V15" s="57"/>
     </row>
     <row r="16" spans="1:23" s="14" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="88" t="s">
+      <c r="A16" s="64" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="88"/>
-      <c r="C16" s="88"/>
-      <c r="D16" s="88"/>
-      <c r="E16" s="88"/>
-      <c r="F16" s="88"/>
-      <c r="G16" s="88"/>
-      <c r="H16" s="88"/>
-      <c r="I16" s="88"/>
-      <c r="J16" s="88"/>
-      <c r="K16" s="88"/>
-      <c r="L16" s="88"/>
-      <c r="M16" s="88"/>
-      <c r="N16" s="88"/>
-      <c r="O16" s="88"/>
-      <c r="P16" s="88"/>
-      <c r="Q16" s="88"/>
-      <c r="R16" s="88"/>
-      <c r="S16" s="56" t="s">
+      <c r="B16" s="64"/>
+      <c r="C16" s="64"/>
+      <c r="D16" s="64"/>
+      <c r="E16" s="64"/>
+      <c r="F16" s="64"/>
+      <c r="G16" s="64"/>
+      <c r="H16" s="64"/>
+      <c r="I16" s="64"/>
+      <c r="J16" s="64"/>
+      <c r="K16" s="64"/>
+      <c r="L16" s="64"/>
+      <c r="M16" s="64"/>
+      <c r="N16" s="64"/>
+      <c r="O16" s="64"/>
+      <c r="P16" s="64"/>
+      <c r="Q16" s="64"/>
+      <c r="R16" s="64"/>
+      <c r="S16" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="T16" s="56"/>
-      <c r="U16" s="56"/>
-      <c r="V16" s="56"/>
+      <c r="T16" s="34"/>
+      <c r="U16" s="34"/>
+      <c r="V16" s="34"/>
     </row>
     <row r="17" spans="1:22" s="14" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="88" t="s">
-        <v>26</v>
-      </c>
-      <c r="B17" s="88"/>
-      <c r="C17" s="88"/>
-      <c r="D17" s="88"/>
-      <c r="E17" s="88"/>
-      <c r="F17" s="88"/>
-      <c r="G17" s="88"/>
-      <c r="H17" s="88"/>
-      <c r="I17" s="88"/>
-      <c r="J17" s="88"/>
-      <c r="K17" s="88"/>
-      <c r="L17" s="88"/>
-      <c r="M17" s="88"/>
-      <c r="N17" s="88"/>
-      <c r="O17" s="88"/>
-      <c r="P17" s="88"/>
-      <c r="Q17" s="88"/>
-      <c r="R17" s="88"/>
-      <c r="S17" s="56" t="s">
+      <c r="A17" s="64" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17" s="64"/>
+      <c r="C17" s="64"/>
+      <c r="D17" s="64"/>
+      <c r="E17" s="64"/>
+      <c r="F17" s="64"/>
+      <c r="G17" s="64"/>
+      <c r="H17" s="64"/>
+      <c r="I17" s="64"/>
+      <c r="J17" s="64"/>
+      <c r="K17" s="64"/>
+      <c r="L17" s="64"/>
+      <c r="M17" s="64"/>
+      <c r="N17" s="64"/>
+      <c r="O17" s="64"/>
+      <c r="P17" s="64"/>
+      <c r="Q17" s="64"/>
+      <c r="R17" s="64"/>
+      <c r="S17" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="T17" s="56"/>
-      <c r="U17" s="56"/>
-      <c r="V17" s="56"/>
+      <c r="T17" s="34"/>
+      <c r="U17" s="34"/>
+      <c r="V17" s="34"/>
     </row>
     <row r="18" spans="1:22" s="27" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="10"/>
@@ -1503,444 +1567,444 @@
     </row>
     <row r="20" spans="1:22" s="14" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="D20" s="36"/>
+      <c r="E20" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F20" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="B20" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="C20" s="73" t="s">
-        <v>40</v>
-      </c>
-      <c r="D20" s="74"/>
-      <c r="E20" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="F20" s="73" t="s">
-        <v>41</v>
-      </c>
-      <c r="G20" s="73"/>
-      <c r="H20" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="I20" s="30"/>
-      <c r="J20" s="73" t="s">
+      <c r="G20" s="31"/>
+      <c r="H20" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="K20" s="73"/>
-      <c r="L20" s="73"/>
+      <c r="I20" s="32"/>
+      <c r="J20" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="K20" s="31"/>
+      <c r="L20" s="31"/>
       <c r="M20" s="24" t="str">
         <f>IF(H20="(-5)..0..5","5",IF(H20="0..5","5",IF(H20="0..2,5..5","5","20")))</f>
         <v>20</v>
       </c>
-      <c r="N20" s="75" t="s">
-        <v>46</v>
-      </c>
-      <c r="O20" s="75"/>
-      <c r="P20" s="75"/>
-      <c r="Q20" s="75"/>
-      <c r="R20" s="75"/>
-      <c r="S20" s="75"/>
-      <c r="T20" s="75"/>
-      <c r="U20" s="75"/>
-      <c r="V20" s="75"/>
+      <c r="N20" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="O20" s="43"/>
+      <c r="P20" s="43"/>
+      <c r="Q20" s="43"/>
+      <c r="R20" s="43"/>
+      <c r="S20" s="43"/>
+      <c r="T20" s="43"/>
+      <c r="U20" s="43"/>
+      <c r="V20" s="43"/>
     </row>
     <row r="21" spans="1:22" s="7" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="B21" s="73"/>
-      <c r="C21" s="73" t="s">
+      <c r="A21" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" s="31"/>
+      <c r="C21" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="D21" s="31"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="31"/>
+      <c r="H21" s="31"/>
+      <c r="I21" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="J21" s="38"/>
+      <c r="K21" s="38"/>
+      <c r="L21" s="38"/>
+      <c r="M21" s="38"/>
+      <c r="N21" s="39"/>
+      <c r="O21" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="P21" s="38"/>
+      <c r="Q21" s="38"/>
+      <c r="R21" s="38"/>
+      <c r="S21" s="38"/>
+      <c r="T21" s="39"/>
+      <c r="U21" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="V21" s="34"/>
+    </row>
+    <row r="22" spans="1:22" s="7" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="31"/>
+      <c r="B22" s="31"/>
+      <c r="C22" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="D21" s="73"/>
-      <c r="E21" s="73"/>
-      <c r="F21" s="73"/>
-      <c r="G21" s="73"/>
-      <c r="H21" s="73"/>
-      <c r="I21" s="43" t="s">
+      <c r="D22" s="31"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="J21" s="44"/>
-      <c r="K21" s="44"/>
-      <c r="L21" s="44"/>
-      <c r="M21" s="44"/>
-      <c r="N21" s="45"/>
-      <c r="O21" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="P21" s="44"/>
-      <c r="Q21" s="44"/>
-      <c r="R21" s="44"/>
-      <c r="S21" s="44"/>
-      <c r="T21" s="45"/>
-      <c r="U21" s="73" t="s">
-        <v>47</v>
-      </c>
-      <c r="V21" s="56"/>
-    </row>
-    <row r="22" spans="1:22" s="7" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="73"/>
-      <c r="B22" s="73"/>
-      <c r="C22" s="73" t="s">
-        <v>36</v>
-      </c>
-      <c r="D22" s="73"/>
-      <c r="E22" s="73"/>
-      <c r="F22" s="73" t="s">
-        <v>37</v>
-      </c>
-      <c r="G22" s="73"/>
-      <c r="H22" s="73"/>
-      <c r="I22" s="46"/>
-      <c r="J22" s="47"/>
-      <c r="K22" s="47"/>
-      <c r="L22" s="47"/>
-      <c r="M22" s="47"/>
-      <c r="N22" s="48"/>
-      <c r="O22" s="46"/>
-      <c r="P22" s="47"/>
-      <c r="Q22" s="47"/>
-      <c r="R22" s="47"/>
-      <c r="S22" s="47"/>
-      <c r="T22" s="48"/>
-      <c r="U22" s="56"/>
-      <c r="V22" s="56"/>
+      <c r="G22" s="31"/>
+      <c r="H22" s="31"/>
+      <c r="I22" s="40"/>
+      <c r="J22" s="41"/>
+      <c r="K22" s="41"/>
+      <c r="L22" s="41"/>
+      <c r="M22" s="41"/>
+      <c r="N22" s="42"/>
+      <c r="O22" s="40"/>
+      <c r="P22" s="41"/>
+      <c r="Q22" s="41"/>
+      <c r="R22" s="41"/>
+      <c r="S22" s="41"/>
+      <c r="T22" s="42"/>
+      <c r="U22" s="34"/>
+      <c r="V22" s="34"/>
     </row>
     <row r="23" spans="1:22" s="7" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="29">
+      <c r="A23" s="35">
         <v>0.2</v>
       </c>
-      <c r="B23" s="29"/>
-      <c r="C23" s="30" t="e">
+      <c r="B23" s="35"/>
+      <c r="C23" s="32" t="e">
         <f>$I$5*A23</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D23" s="30"/>
-      <c r="E23" s="30"/>
-      <c r="F23" s="30">
+      <c r="D23" s="32"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="32">
         <f>$M$20*A23</f>
         <v>4</v>
       </c>
-      <c r="G23" s="30"/>
-      <c r="H23" s="30"/>
-      <c r="I23" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="J23" s="32"/>
-      <c r="K23" s="32"/>
-      <c r="L23" s="32"/>
-      <c r="M23" s="32"/>
-      <c r="N23" s="33"/>
-      <c r="O23" s="34" t="e">
+      <c r="G23" s="32"/>
+      <c r="H23" s="32"/>
+      <c r="I23" s="79" t="s">
+        <v>29</v>
+      </c>
+      <c r="J23" s="80"/>
+      <c r="K23" s="80"/>
+      <c r="L23" s="80"/>
+      <c r="M23" s="80"/>
+      <c r="N23" s="81"/>
+      <c r="O23" s="82" t="e">
         <f>(I23-$F23)/$M$20*100</f>
         <v>#VALUE!</v>
       </c>
-      <c r="P23" s="35"/>
-      <c r="Q23" s="35"/>
-      <c r="R23" s="35"/>
-      <c r="S23" s="35"/>
-      <c r="T23" s="36"/>
-      <c r="U23" s="37">
+      <c r="P23" s="83"/>
+      <c r="Q23" s="83"/>
+      <c r="R23" s="83"/>
+      <c r="S23" s="83"/>
+      <c r="T23" s="84"/>
+      <c r="U23" s="85">
         <f>$E$5</f>
         <v>1</v>
       </c>
-      <c r="V23" s="38"/>
+      <c r="V23" s="86"/>
     </row>
     <row r="24" spans="1:22" s="7" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="29">
+      <c r="A24" s="35">
         <v>0.4</v>
       </c>
-      <c r="B24" s="29"/>
-      <c r="C24" s="30" t="e">
+      <c r="B24" s="35"/>
+      <c r="C24" s="32" t="e">
         <f t="shared" ref="C24:C28" si="0">$I$5*A24</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D24" s="30"/>
-      <c r="E24" s="30"/>
-      <c r="F24" s="30">
+      <c r="D24" s="32"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="32">
         <f t="shared" ref="F24:F28" si="1">$M$20*A24</f>
         <v>8</v>
       </c>
-      <c r="G24" s="30"/>
-      <c r="H24" s="30"/>
-      <c r="I24" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="J24" s="32"/>
-      <c r="K24" s="32"/>
-      <c r="L24" s="32"/>
-      <c r="M24" s="32"/>
-      <c r="N24" s="33"/>
-      <c r="O24" s="34" t="e">
+      <c r="G24" s="32"/>
+      <c r="H24" s="32"/>
+      <c r="I24" s="79" t="s">
+        <v>29</v>
+      </c>
+      <c r="J24" s="80"/>
+      <c r="K24" s="80"/>
+      <c r="L24" s="80"/>
+      <c r="M24" s="80"/>
+      <c r="N24" s="81"/>
+      <c r="O24" s="82" t="e">
         <f t="shared" ref="O24:O28" si="2">(I24-$F24)/$M$20*100</f>
         <v>#VALUE!</v>
       </c>
-      <c r="P24" s="35"/>
-      <c r="Q24" s="35"/>
-      <c r="R24" s="35"/>
-      <c r="S24" s="35"/>
-      <c r="T24" s="36"/>
-      <c r="U24" s="39"/>
-      <c r="V24" s="40"/>
+      <c r="P24" s="83"/>
+      <c r="Q24" s="83"/>
+      <c r="R24" s="83"/>
+      <c r="S24" s="83"/>
+      <c r="T24" s="84"/>
+      <c r="U24" s="87"/>
+      <c r="V24" s="88"/>
     </row>
     <row r="25" spans="1:22" s="7" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="29">
+      <c r="A25" s="35">
         <v>0.6</v>
       </c>
-      <c r="B25" s="29"/>
-      <c r="C25" s="30" t="e">
+      <c r="B25" s="35"/>
+      <c r="C25" s="32" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="D25" s="30"/>
-      <c r="E25" s="30"/>
-      <c r="F25" s="30">
+      <c r="D25" s="32"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="32">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="G25" s="30"/>
-      <c r="H25" s="30"/>
-      <c r="I25" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="J25" s="32"/>
-      <c r="K25" s="32"/>
-      <c r="L25" s="32"/>
-      <c r="M25" s="32"/>
-      <c r="N25" s="33"/>
-      <c r="O25" s="34" t="e">
+      <c r="G25" s="32"/>
+      <c r="H25" s="32"/>
+      <c r="I25" s="79" t="s">
+        <v>29</v>
+      </c>
+      <c r="J25" s="80"/>
+      <c r="K25" s="80"/>
+      <c r="L25" s="80"/>
+      <c r="M25" s="80"/>
+      <c r="N25" s="81"/>
+      <c r="O25" s="82" t="e">
         <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
-      <c r="P25" s="35"/>
-      <c r="Q25" s="35"/>
-      <c r="R25" s="35"/>
-      <c r="S25" s="35"/>
-      <c r="T25" s="36"/>
-      <c r="U25" s="39"/>
-      <c r="V25" s="40"/>
+      <c r="P25" s="83"/>
+      <c r="Q25" s="83"/>
+      <c r="R25" s="83"/>
+      <c r="S25" s="83"/>
+      <c r="T25" s="84"/>
+      <c r="U25" s="87"/>
+      <c r="V25" s="88"/>
     </row>
     <row r="26" spans="1:22" s="7" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="29">
+      <c r="A26" s="35">
         <v>0.8</v>
       </c>
-      <c r="B26" s="29"/>
-      <c r="C26" s="30" t="e">
+      <c r="B26" s="35"/>
+      <c r="C26" s="32" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="D26" s="30"/>
-      <c r="E26" s="30"/>
-      <c r="F26" s="30">
+      <c r="D26" s="32"/>
+      <c r="E26" s="32"/>
+      <c r="F26" s="32">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="G26" s="30"/>
-      <c r="H26" s="30"/>
-      <c r="I26" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="J26" s="32"/>
-      <c r="K26" s="32"/>
-      <c r="L26" s="32"/>
-      <c r="M26" s="32"/>
-      <c r="N26" s="33"/>
-      <c r="O26" s="34" t="e">
+      <c r="G26" s="32"/>
+      <c r="H26" s="32"/>
+      <c r="I26" s="79" t="s">
+        <v>29</v>
+      </c>
+      <c r="J26" s="80"/>
+      <c r="K26" s="80"/>
+      <c r="L26" s="80"/>
+      <c r="M26" s="80"/>
+      <c r="N26" s="81"/>
+      <c r="O26" s="82" t="e">
         <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
-      <c r="P26" s="35"/>
-      <c r="Q26" s="35"/>
-      <c r="R26" s="35"/>
-      <c r="S26" s="35"/>
-      <c r="T26" s="36"/>
-      <c r="U26" s="39"/>
-      <c r="V26" s="40"/>
+      <c r="P26" s="83"/>
+      <c r="Q26" s="83"/>
+      <c r="R26" s="83"/>
+      <c r="S26" s="83"/>
+      <c r="T26" s="84"/>
+      <c r="U26" s="87"/>
+      <c r="V26" s="88"/>
     </row>
     <row r="27" spans="1:22" s="7" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="29">
+      <c r="A27" s="35">
         <v>1</v>
       </c>
-      <c r="B27" s="29"/>
-      <c r="C27" s="30" t="e">
+      <c r="B27" s="35"/>
+      <c r="C27" s="32" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="D27" s="30"/>
-      <c r="E27" s="30"/>
-      <c r="F27" s="30">
+      <c r="D27" s="32"/>
+      <c r="E27" s="32"/>
+      <c r="F27" s="32">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="G27" s="30"/>
-      <c r="H27" s="30"/>
-      <c r="I27" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="J27" s="32"/>
-      <c r="K27" s="32"/>
-      <c r="L27" s="32"/>
-      <c r="M27" s="32"/>
-      <c r="N27" s="33"/>
-      <c r="O27" s="34" t="e">
+      <c r="G27" s="32"/>
+      <c r="H27" s="32"/>
+      <c r="I27" s="79" t="s">
+        <v>29</v>
+      </c>
+      <c r="J27" s="80"/>
+      <c r="K27" s="80"/>
+      <c r="L27" s="80"/>
+      <c r="M27" s="80"/>
+      <c r="N27" s="81"/>
+      <c r="O27" s="82" t="e">
         <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
-      <c r="P27" s="35"/>
-      <c r="Q27" s="35"/>
-      <c r="R27" s="35"/>
-      <c r="S27" s="35"/>
-      <c r="T27" s="36"/>
-      <c r="U27" s="39"/>
-      <c r="V27" s="40"/>
+      <c r="P27" s="83"/>
+      <c r="Q27" s="83"/>
+      <c r="R27" s="83"/>
+      <c r="S27" s="83"/>
+      <c r="T27" s="84"/>
+      <c r="U27" s="87"/>
+      <c r="V27" s="88"/>
     </row>
     <row r="28" spans="1:22" s="7" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="29">
+      <c r="A28" s="35">
         <v>0.8</v>
       </c>
-      <c r="B28" s="29"/>
-      <c r="C28" s="30" t="e">
+      <c r="B28" s="35"/>
+      <c r="C28" s="32" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="D28" s="30"/>
-      <c r="E28" s="30"/>
-      <c r="F28" s="30">
+      <c r="D28" s="32"/>
+      <c r="E28" s="32"/>
+      <c r="F28" s="32">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="G28" s="30"/>
-      <c r="H28" s="30"/>
-      <c r="I28" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="J28" s="32"/>
-      <c r="K28" s="32"/>
-      <c r="L28" s="32"/>
-      <c r="M28" s="32"/>
-      <c r="N28" s="33"/>
-      <c r="O28" s="34" t="e">
+      <c r="G28" s="32"/>
+      <c r="H28" s="32"/>
+      <c r="I28" s="79" t="s">
+        <v>29</v>
+      </c>
+      <c r="J28" s="80"/>
+      <c r="K28" s="80"/>
+      <c r="L28" s="80"/>
+      <c r="M28" s="80"/>
+      <c r="N28" s="81"/>
+      <c r="O28" s="82" t="e">
         <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
-      <c r="P28" s="35"/>
-      <c r="Q28" s="35"/>
-      <c r="R28" s="35"/>
-      <c r="S28" s="35"/>
-      <c r="T28" s="36"/>
-      <c r="U28" s="39"/>
-      <c r="V28" s="40"/>
+      <c r="P28" s="83"/>
+      <c r="Q28" s="83"/>
+      <c r="R28" s="83"/>
+      <c r="S28" s="83"/>
+      <c r="T28" s="84"/>
+      <c r="U28" s="87"/>
+      <c r="V28" s="88"/>
     </row>
     <row r="29" spans="1:22" s="7" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="29">
+      <c r="A29" s="35">
         <v>0.6</v>
       </c>
-      <c r="B29" s="29"/>
-      <c r="C29" s="30" t="e">
+      <c r="B29" s="35"/>
+      <c r="C29" s="32" t="e">
         <f t="shared" ref="C29:C31" si="3">$I$5*A29</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D29" s="30"/>
-      <c r="E29" s="30"/>
-      <c r="F29" s="30">
+      <c r="D29" s="32"/>
+      <c r="E29" s="32"/>
+      <c r="F29" s="32">
         <f t="shared" ref="F29:F31" si="4">$M$20*A29</f>
         <v>12</v>
       </c>
-      <c r="G29" s="30"/>
-      <c r="H29" s="30"/>
-      <c r="I29" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="J29" s="32"/>
-      <c r="K29" s="32"/>
-      <c r="L29" s="32"/>
-      <c r="M29" s="32"/>
-      <c r="N29" s="33"/>
-      <c r="O29" s="34" t="e">
+      <c r="G29" s="32"/>
+      <c r="H29" s="32"/>
+      <c r="I29" s="79" t="s">
+        <v>29</v>
+      </c>
+      <c r="J29" s="80"/>
+      <c r="K29" s="80"/>
+      <c r="L29" s="80"/>
+      <c r="M29" s="80"/>
+      <c r="N29" s="81"/>
+      <c r="O29" s="82" t="e">
         <f t="shared" ref="O29:O31" si="5">(I29-$F29)/$M$20*100</f>
         <v>#VALUE!</v>
       </c>
-      <c r="P29" s="35"/>
-      <c r="Q29" s="35"/>
-      <c r="R29" s="35"/>
-      <c r="S29" s="35"/>
-      <c r="T29" s="36"/>
-      <c r="U29" s="39"/>
-      <c r="V29" s="40"/>
+      <c r="P29" s="83"/>
+      <c r="Q29" s="83"/>
+      <c r="R29" s="83"/>
+      <c r="S29" s="83"/>
+      <c r="T29" s="84"/>
+      <c r="U29" s="87"/>
+      <c r="V29" s="88"/>
     </row>
     <row r="30" spans="1:22" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="29">
+      <c r="A30" s="35">
         <v>0.4</v>
       </c>
-      <c r="B30" s="29"/>
-      <c r="C30" s="30" t="e">
+      <c r="B30" s="35"/>
+      <c r="C30" s="32" t="e">
         <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
-      <c r="D30" s="30"/>
-      <c r="E30" s="30"/>
-      <c r="F30" s="30">
+      <c r="D30" s="32"/>
+      <c r="E30" s="32"/>
+      <c r="F30" s="32">
         <f t="shared" si="4"/>
         <v>8</v>
       </c>
-      <c r="G30" s="30"/>
-      <c r="H30" s="30"/>
-      <c r="I30" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="J30" s="32"/>
-      <c r="K30" s="32"/>
-      <c r="L30" s="32"/>
-      <c r="M30" s="32"/>
-      <c r="N30" s="33"/>
-      <c r="O30" s="34" t="e">
+      <c r="G30" s="32"/>
+      <c r="H30" s="32"/>
+      <c r="I30" s="79" t="s">
+        <v>29</v>
+      </c>
+      <c r="J30" s="80"/>
+      <c r="K30" s="80"/>
+      <c r="L30" s="80"/>
+      <c r="M30" s="80"/>
+      <c r="N30" s="81"/>
+      <c r="O30" s="82" t="e">
         <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
-      <c r="P30" s="35"/>
-      <c r="Q30" s="35"/>
-      <c r="R30" s="35"/>
-      <c r="S30" s="35"/>
-      <c r="T30" s="36"/>
-      <c r="U30" s="39"/>
-      <c r="V30" s="40"/>
+      <c r="P30" s="83"/>
+      <c r="Q30" s="83"/>
+      <c r="R30" s="83"/>
+      <c r="S30" s="83"/>
+      <c r="T30" s="84"/>
+      <c r="U30" s="87"/>
+      <c r="V30" s="88"/>
     </row>
     <row r="31" spans="1:22" s="7" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="29">
+      <c r="A31" s="35">
         <v>0.2</v>
       </c>
-      <c r="B31" s="29"/>
-      <c r="C31" s="30" t="e">
+      <c r="B31" s="35"/>
+      <c r="C31" s="32" t="e">
         <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
-      <c r="D31" s="30"/>
-      <c r="E31" s="30"/>
-      <c r="F31" s="30">
+      <c r="D31" s="32"/>
+      <c r="E31" s="32"/>
+      <c r="F31" s="32">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="G31" s="30"/>
-      <c r="H31" s="30"/>
-      <c r="I31" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="J31" s="32"/>
-      <c r="K31" s="32"/>
-      <c r="L31" s="32"/>
-      <c r="M31" s="32"/>
-      <c r="N31" s="33"/>
-      <c r="O31" s="34" t="e">
+      <c r="G31" s="32"/>
+      <c r="H31" s="32"/>
+      <c r="I31" s="79" t="s">
+        <v>29</v>
+      </c>
+      <c r="J31" s="80"/>
+      <c r="K31" s="80"/>
+      <c r="L31" s="80"/>
+      <c r="M31" s="80"/>
+      <c r="N31" s="81"/>
+      <c r="O31" s="82" t="e">
         <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
-      <c r="P31" s="35"/>
-      <c r="Q31" s="35"/>
-      <c r="R31" s="35"/>
-      <c r="S31" s="35"/>
-      <c r="T31" s="36"/>
-      <c r="U31" s="41"/>
-      <c r="V31" s="42"/>
+      <c r="P31" s="83"/>
+      <c r="Q31" s="83"/>
+      <c r="R31" s="83"/>
+      <c r="S31" s="83"/>
+      <c r="T31" s="84"/>
+      <c r="U31" s="89"/>
+      <c r="V31" s="90"/>
     </row>
     <row r="32" spans="1:22" s="7" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
@@ -2065,38 +2129,38 @@
     </row>
     <row r="62" spans="1:22" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="63" spans="1:22" s="15" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="90" t="s">
-        <v>42</v>
-      </c>
-      <c r="B63" s="62"/>
-      <c r="C63" s="62"/>
-      <c r="D63" s="62" t="s">
-        <v>43</v>
-      </c>
-      <c r="E63" s="62"/>
-      <c r="F63" s="89"/>
+      <c r="A63" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="B63" s="29"/>
+      <c r="C63" s="29"/>
+      <c r="D63" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="E63" s="29"/>
+      <c r="F63" s="30"/>
       <c r="G63" s="19"/>
       <c r="H63" s="19"/>
-      <c r="I63" s="90" t="s">
-        <v>44</v>
-      </c>
-      <c r="J63" s="62"/>
-      <c r="K63" s="62"/>
-      <c r="L63" s="62"/>
-      <c r="M63" s="62"/>
-      <c r="N63" s="89"/>
+      <c r="I63" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="J63" s="29"/>
+      <c r="K63" s="29"/>
+      <c r="L63" s="29"/>
+      <c r="M63" s="29"/>
+      <c r="N63" s="30"/>
       <c r="O63" s="19"/>
       <c r="P63" s="19"/>
-      <c r="Q63" s="90" t="s">
-        <v>45</v>
-      </c>
-      <c r="R63" s="62"/>
-      <c r="S63" s="62"/>
-      <c r="T63" s="62" t="s">
-        <v>30</v>
-      </c>
-      <c r="U63" s="62"/>
-      <c r="V63" s="89"/>
+      <c r="Q63" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="R63" s="29"/>
+      <c r="S63" s="29"/>
+      <c r="T63" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="U63" s="29"/>
+      <c r="V63" s="30"/>
     </row>
     <row r="64" spans="1:22" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="65" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2183,11 +2247,92 @@
     <row r="146" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="110">
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="F31:H31"/>
+    <mergeCell ref="I31:N31"/>
+    <mergeCell ref="O31:T31"/>
+    <mergeCell ref="U23:V31"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="I29:N29"/>
+    <mergeCell ref="O29:T29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="I30:N30"/>
+    <mergeCell ref="O30:T30"/>
+    <mergeCell ref="O21:T22"/>
+    <mergeCell ref="I23:N23"/>
+    <mergeCell ref="I24:N24"/>
+    <mergeCell ref="I25:N25"/>
+    <mergeCell ref="I26:N26"/>
+    <mergeCell ref="I27:N27"/>
+    <mergeCell ref="I28:N28"/>
+    <mergeCell ref="O23:T23"/>
+    <mergeCell ref="O24:T24"/>
+    <mergeCell ref="O25:T25"/>
+    <mergeCell ref="O26:T26"/>
+    <mergeCell ref="O27:T27"/>
+    <mergeCell ref="O28:T28"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="N7:U7"/>
+    <mergeCell ref="N8:Q8"/>
+    <mergeCell ref="R8:U8"/>
+    <mergeCell ref="L1:V1"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="E3:I3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="N5:P5"/>
+    <mergeCell ref="R5:T5"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="R9:U9"/>
+    <mergeCell ref="N13:Q13"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="R11:U11"/>
+    <mergeCell ref="R12:U12"/>
+    <mergeCell ref="R3:V3"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="N20:V20"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="N9:Q9"/>
+    <mergeCell ref="N10:Q10"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="A15:R15"/>
+    <mergeCell ref="R10:U10"/>
+    <mergeCell ref="S15:V15"/>
+    <mergeCell ref="R13:U13"/>
+    <mergeCell ref="N11:Q11"/>
+    <mergeCell ref="N12:Q12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="A16:R16"/>
+    <mergeCell ref="A17:R17"/>
+    <mergeCell ref="S16:V16"/>
+    <mergeCell ref="S17:V17"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:I10"/>
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="I21:N22"/>
     <mergeCell ref="C21:H21"/>
     <mergeCell ref="F23:H23"/>
     <mergeCell ref="F24:H24"/>
     <mergeCell ref="F25:H25"/>
-    <mergeCell ref="F26:H26"/>
     <mergeCell ref="T63:V63"/>
     <mergeCell ref="C22:E22"/>
     <mergeCell ref="C23:E23"/>
@@ -2212,87 +2357,6 @@
     <mergeCell ref="A24:B24"/>
     <mergeCell ref="A25:B25"/>
     <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="N20:V20"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="F8:I8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="N9:Q9"/>
-    <mergeCell ref="N10:Q10"/>
-    <mergeCell ref="F9:I9"/>
-    <mergeCell ref="A15:R15"/>
-    <mergeCell ref="R10:U10"/>
-    <mergeCell ref="S15:V15"/>
-    <mergeCell ref="R13:U13"/>
-    <mergeCell ref="N11:Q11"/>
-    <mergeCell ref="N12:Q12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:I13"/>
-    <mergeCell ref="A16:R16"/>
-    <mergeCell ref="A17:R17"/>
-    <mergeCell ref="S16:V16"/>
-    <mergeCell ref="S17:V17"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F10:I10"/>
-    <mergeCell ref="F11:I11"/>
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="R9:U9"/>
-    <mergeCell ref="N13:Q13"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="R11:U11"/>
-    <mergeCell ref="R12:U12"/>
-    <mergeCell ref="R3:V3"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="N7:U7"/>
-    <mergeCell ref="N8:Q8"/>
-    <mergeCell ref="R8:U8"/>
-    <mergeCell ref="L1:V1"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="E3:I3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="N5:P5"/>
-    <mergeCell ref="R5:T5"/>
-    <mergeCell ref="I21:N22"/>
-    <mergeCell ref="O21:T22"/>
-    <mergeCell ref="I23:N23"/>
-    <mergeCell ref="I24:N24"/>
-    <mergeCell ref="I25:N25"/>
-    <mergeCell ref="I26:N26"/>
-    <mergeCell ref="I27:N27"/>
-    <mergeCell ref="I28:N28"/>
-    <mergeCell ref="O23:T23"/>
-    <mergeCell ref="O24:T24"/>
-    <mergeCell ref="O25:T25"/>
-    <mergeCell ref="O26:T26"/>
-    <mergeCell ref="O27:T27"/>
-    <mergeCell ref="O28:T28"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="F31:H31"/>
-    <mergeCell ref="I31:N31"/>
-    <mergeCell ref="O31:T31"/>
-    <mergeCell ref="U23:V31"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="I29:N29"/>
-    <mergeCell ref="O29:T29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="F30:H30"/>
-    <mergeCell ref="I30:N30"/>
-    <mergeCell ref="O30:T30"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.25196850393700793" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/Libary/E842_I.xlsx
+++ b/Libary/E842_I.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\!XJ\Mea-Auto_develop\Libary\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\!XJ\AMSof_Develop\Libary\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8085"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8085" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Вих2" sheetId="1" r:id="rId1"/>
-    <sheet name="Вих3" sheetId="4" r:id="rId2"/>
+    <sheet name="Протокол" sheetId="1" r:id="rId1"/>
+    <sheet name="Графік сигналу" sheetId="4" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" calcOnSave="0"/>
 </workbook>
 </file>
 
@@ -612,190 +612,190 @@
     <xf numFmtId="165" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1080,7 +1080,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W146"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScale="180" zoomScaleNormal="100" zoomScalePageLayoutView="180" workbookViewId="0">
+    <sheetView zoomScale="180" zoomScaleNormal="100" zoomScalePageLayoutView="180" workbookViewId="0">
       <selection activeCell="D64" sqref="D64"/>
     </sheetView>
   </sheetViews>
@@ -1093,32 +1093,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70"/>
-      <c r="L1" s="72" t="s">
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="M1" s="72"/>
-      <c r="N1" s="72"/>
-      <c r="O1" s="72"/>
-      <c r="P1" s="72"/>
-      <c r="Q1" s="72"/>
-      <c r="R1" s="72"/>
-      <c r="S1" s="72"/>
-      <c r="T1" s="72"/>
-      <c r="U1" s="72"/>
-      <c r="V1" s="72"/>
+      <c r="M1" s="52"/>
+      <c r="N1" s="52"/>
+      <c r="O1" s="52"/>
+      <c r="P1" s="52"/>
+      <c r="Q1" s="52"/>
+      <c r="R1" s="52"/>
+      <c r="S1" s="52"/>
+      <c r="T1" s="52"/>
+      <c r="U1" s="52"/>
+      <c r="V1" s="52"/>
       <c r="W1" s="1"/>
     </row>
     <row r="2" spans="1:23" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1147,42 +1147,42 @@
       <c r="W2" s="1"/>
     </row>
     <row r="3" spans="1:23" s="15" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="75" t="s">
+      <c r="A3" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="76"/>
-      <c r="C3" s="76"/>
-      <c r="D3" s="76"/>
-      <c r="E3" s="29" t="s">
+      <c r="B3" s="56"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="29" t="s">
+      <c r="F3" s="57"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="K3" s="29"/>
-      <c r="L3" s="67" t="s">
+      <c r="K3" s="57"/>
+      <c r="L3" s="66" t="s">
         <v>45</v>
       </c>
-      <c r="M3" s="67"/>
-      <c r="N3" s="68" t="s">
+      <c r="M3" s="66"/>
+      <c r="N3" s="67" t="s">
         <v>29</v>
       </c>
-      <c r="O3" s="68"/>
-      <c r="P3" s="29" t="s">
+      <c r="O3" s="67"/>
+      <c r="P3" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="Q3" s="29"/>
-      <c r="R3" s="68" t="s">
+      <c r="Q3" s="57"/>
+      <c r="R3" s="67" t="s">
         <v>29</v>
       </c>
-      <c r="S3" s="68"/>
-      <c r="T3" s="68"/>
-      <c r="U3" s="68"/>
-      <c r="V3" s="69"/>
+      <c r="S3" s="67"/>
+      <c r="T3" s="67"/>
+      <c r="U3" s="67"/>
+      <c r="V3" s="68"/>
       <c r="W3" s="18"/>
     </row>
     <row r="4" spans="1:23" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1212,35 +1212,35 @@
     </row>
     <row r="5" spans="1:23" s="15" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
-      <c r="B5" s="73" t="s">
+      <c r="B5" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="74"/>
-      <c r="D5" s="74"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="54"/>
       <c r="E5" s="28">
         <v>1</v>
       </c>
-      <c r="F5" s="73" t="s">
+      <c r="F5" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="G5" s="74"/>
-      <c r="H5" s="74"/>
+      <c r="G5" s="54"/>
+      <c r="H5" s="54"/>
       <c r="I5" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="J5" s="73"/>
-      <c r="K5" s="74"/>
-      <c r="L5" s="74"/>
+      <c r="J5" s="53"/>
+      <c r="K5" s="54"/>
+      <c r="L5" s="54"/>
       <c r="M5" s="20"/>
-      <c r="N5" s="73"/>
-      <c r="O5" s="74"/>
-      <c r="P5" s="74"/>
+      <c r="N5" s="53"/>
+      <c r="O5" s="54"/>
+      <c r="P5" s="54"/>
       <c r="Q5" s="20"/>
-      <c r="R5" s="77" t="s">
+      <c r="R5" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="S5" s="78"/>
-      <c r="T5" s="78"/>
+      <c r="S5" s="59"/>
+      <c r="T5" s="59"/>
       <c r="U5" s="21">
         <v>2</v>
       </c>
@@ -1256,53 +1256,53 @@
     </row>
     <row r="7" spans="1:23" s="15" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
-      <c r="B7" s="71" t="s">
+      <c r="B7" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="71"/>
-      <c r="D7" s="71"/>
-      <c r="E7" s="71"/>
-      <c r="F7" s="71"/>
-      <c r="G7" s="71"/>
-      <c r="H7" s="71"/>
-      <c r="I7" s="71"/>
-      <c r="N7" s="71" t="s">
+      <c r="C7" s="50"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="50"/>
+      <c r="H7" s="50"/>
+      <c r="I7" s="50"/>
+      <c r="N7" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="O7" s="71"/>
-      <c r="P7" s="71"/>
-      <c r="Q7" s="71"/>
-      <c r="R7" s="71"/>
-      <c r="S7" s="71"/>
-      <c r="T7" s="71"/>
-      <c r="U7" s="71"/>
+      <c r="O7" s="50"/>
+      <c r="P7" s="50"/>
+      <c r="Q7" s="50"/>
+      <c r="R7" s="50"/>
+      <c r="S7" s="50"/>
+      <c r="T7" s="50"/>
+      <c r="U7" s="50"/>
       <c r="V7" s="6"/>
     </row>
     <row r="8" spans="1:23" s="15" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="34" t="s">
+      <c r="B8" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34" t="s">
+      <c r="C8" s="51"/>
+      <c r="D8" s="51"/>
+      <c r="E8" s="51"/>
+      <c r="F8" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="G8" s="34"/>
-      <c r="H8" s="34"/>
-      <c r="I8" s="34"/>
-      <c r="N8" s="34" t="s">
+      <c r="G8" s="51"/>
+      <c r="H8" s="51"/>
+      <c r="I8" s="51"/>
+      <c r="N8" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="O8" s="34"/>
-      <c r="P8" s="34"/>
-      <c r="Q8" s="34"/>
-      <c r="R8" s="34" t="s">
+      <c r="O8" s="51"/>
+      <c r="P8" s="51"/>
+      <c r="Q8" s="51"/>
+      <c r="R8" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="S8" s="34"/>
-      <c r="T8" s="34"/>
-      <c r="U8" s="34"/>
+      <c r="S8" s="51"/>
+      <c r="T8" s="51"/>
+      <c r="U8" s="51"/>
     </row>
     <row r="9" spans="1:23" s="15" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="11" t="s">
@@ -1311,28 +1311,28 @@
       <c r="C9" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="44" t="s">
+      <c r="D9" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="44"/>
-      <c r="F9" s="51" t="s">
+      <c r="E9" s="60"/>
+      <c r="F9" s="76" t="s">
         <v>46</v>
       </c>
-      <c r="G9" s="52"/>
-      <c r="H9" s="52"/>
-      <c r="I9" s="53"/>
-      <c r="N9" s="45" t="s">
+      <c r="G9" s="77"/>
+      <c r="H9" s="77"/>
+      <c r="I9" s="78"/>
+      <c r="N9" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="O9" s="46"/>
-      <c r="P9" s="46"/>
-      <c r="Q9" s="47"/>
-      <c r="R9" s="55">
+      <c r="O9" s="71"/>
+      <c r="P9" s="71"/>
+      <c r="Q9" s="72"/>
+      <c r="R9" s="61">
         <v>556621</v>
       </c>
-      <c r="S9" s="55"/>
-      <c r="T9" s="55"/>
-      <c r="U9" s="56"/>
+      <c r="S9" s="61"/>
+      <c r="T9" s="61"/>
+      <c r="U9" s="62"/>
     </row>
     <row r="10" spans="1:23" s="15" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="11" t="s">
@@ -1341,28 +1341,28 @@
       <c r="C10" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="65" t="s">
+      <c r="D10" s="86" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="65"/>
-      <c r="F10" s="51" t="s">
+      <c r="E10" s="86"/>
+      <c r="F10" s="76" t="s">
         <v>47</v>
       </c>
-      <c r="G10" s="52"/>
-      <c r="H10" s="52"/>
-      <c r="I10" s="53"/>
-      <c r="N10" s="48" t="s">
+      <c r="G10" s="77"/>
+      <c r="H10" s="77"/>
+      <c r="I10" s="78"/>
+      <c r="N10" s="73" t="s">
         <v>30</v>
       </c>
-      <c r="O10" s="49"/>
-      <c r="P10" s="49"/>
-      <c r="Q10" s="50"/>
-      <c r="R10" s="55" t="s">
+      <c r="O10" s="74"/>
+      <c r="P10" s="74"/>
+      <c r="Q10" s="75"/>
+      <c r="R10" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="S10" s="55"/>
-      <c r="T10" s="55"/>
-      <c r="U10" s="56"/>
+      <c r="S10" s="61"/>
+      <c r="T10" s="61"/>
+      <c r="U10" s="62"/>
     </row>
     <row r="11" spans="1:23" s="15" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="12" t="s">
@@ -1371,24 +1371,24 @@
       <c r="C11" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="44" t="s">
+      <c r="D11" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="44"/>
-      <c r="F11" s="51" t="s">
+      <c r="E11" s="60"/>
+      <c r="F11" s="76" t="s">
         <v>48</v>
       </c>
-      <c r="G11" s="52"/>
-      <c r="H11" s="52"/>
-      <c r="I11" s="53"/>
-      <c r="N11" s="48"/>
-      <c r="O11" s="49"/>
-      <c r="P11" s="49"/>
-      <c r="Q11" s="50"/>
-      <c r="R11" s="55"/>
-      <c r="S11" s="55"/>
-      <c r="T11" s="55"/>
-      <c r="U11" s="56"/>
+      <c r="G11" s="77"/>
+      <c r="H11" s="77"/>
+      <c r="I11" s="78"/>
+      <c r="N11" s="73"/>
+      <c r="O11" s="74"/>
+      <c r="P11" s="74"/>
+      <c r="Q11" s="75"/>
+      <c r="R11" s="61"/>
+      <c r="S11" s="61"/>
+      <c r="T11" s="61"/>
+      <c r="U11" s="62"/>
     </row>
     <row r="12" spans="1:23" s="15" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="11" t="s">
@@ -1397,42 +1397,42 @@
       <c r="C12" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="44" t="s">
+      <c r="D12" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="44"/>
-      <c r="F12" s="51" t="s">
+      <c r="E12" s="60"/>
+      <c r="F12" s="76" t="s">
         <v>49</v>
       </c>
-      <c r="G12" s="52"/>
-      <c r="H12" s="52"/>
-      <c r="I12" s="53"/>
-      <c r="N12" s="48"/>
-      <c r="O12" s="49"/>
-      <c r="P12" s="49"/>
-      <c r="Q12" s="50"/>
-      <c r="R12" s="55"/>
-      <c r="S12" s="55"/>
-      <c r="T12" s="55"/>
-      <c r="U12" s="56"/>
+      <c r="G12" s="77"/>
+      <c r="H12" s="77"/>
+      <c r="I12" s="78"/>
+      <c r="N12" s="73"/>
+      <c r="O12" s="74"/>
+      <c r="P12" s="74"/>
+      <c r="Q12" s="75"/>
+      <c r="R12" s="61"/>
+      <c r="S12" s="61"/>
+      <c r="T12" s="61"/>
+      <c r="U12" s="62"/>
     </row>
     <row r="13" spans="1:23" s="15" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="22"/>
       <c r="C13" s="23"/>
-      <c r="D13" s="60"/>
-      <c r="E13" s="60"/>
-      <c r="F13" s="61"/>
-      <c r="G13" s="62"/>
-      <c r="H13" s="62"/>
-      <c r="I13" s="63"/>
-      <c r="N13" s="66"/>
-      <c r="O13" s="58"/>
-      <c r="P13" s="58"/>
-      <c r="Q13" s="59"/>
-      <c r="R13" s="58"/>
-      <c r="S13" s="58"/>
-      <c r="T13" s="58"/>
-      <c r="U13" s="59"/>
+      <c r="D13" s="81"/>
+      <c r="E13" s="81"/>
+      <c r="F13" s="82"/>
+      <c r="G13" s="83"/>
+      <c r="H13" s="83"/>
+      <c r="I13" s="84"/>
+      <c r="N13" s="63"/>
+      <c r="O13" s="64"/>
+      <c r="P13" s="64"/>
+      <c r="Q13" s="65"/>
+      <c r="R13" s="64"/>
+      <c r="S13" s="64"/>
+      <c r="T13" s="64"/>
+      <c r="U13" s="65"/>
     </row>
     <row r="14" spans="1:23" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E14" s="6"/>
@@ -1442,88 +1442,88 @@
       <c r="I14" s="6"/>
     </row>
     <row r="15" spans="1:23" s="14" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="54" t="s">
+      <c r="A15" s="79" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="54"/>
-      <c r="C15" s="54"/>
-      <c r="D15" s="54"/>
-      <c r="E15" s="54"/>
-      <c r="F15" s="54"/>
-      <c r="G15" s="54"/>
-      <c r="H15" s="54"/>
-      <c r="I15" s="54"/>
-      <c r="J15" s="54"/>
-      <c r="K15" s="54"/>
-      <c r="L15" s="54"/>
-      <c r="M15" s="54"/>
-      <c r="N15" s="54"/>
-      <c r="O15" s="54"/>
-      <c r="P15" s="54"/>
-      <c r="Q15" s="54"/>
-      <c r="R15" s="54"/>
-      <c r="S15" s="57" t="s">
+      <c r="B15" s="79"/>
+      <c r="C15" s="79"/>
+      <c r="D15" s="79"/>
+      <c r="E15" s="79"/>
+      <c r="F15" s="79"/>
+      <c r="G15" s="79"/>
+      <c r="H15" s="79"/>
+      <c r="I15" s="79"/>
+      <c r="J15" s="79"/>
+      <c r="K15" s="79"/>
+      <c r="L15" s="79"/>
+      <c r="M15" s="79"/>
+      <c r="N15" s="79"/>
+      <c r="O15" s="79"/>
+      <c r="P15" s="79"/>
+      <c r="Q15" s="79"/>
+      <c r="R15" s="79"/>
+      <c r="S15" s="80" t="s">
         <v>23</v>
       </c>
-      <c r="T15" s="57"/>
-      <c r="U15" s="57"/>
-      <c r="V15" s="57"/>
+      <c r="T15" s="80"/>
+      <c r="U15" s="80"/>
+      <c r="V15" s="80"/>
     </row>
     <row r="16" spans="1:23" s="14" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="64" t="s">
+      <c r="A16" s="85" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="64"/>
-      <c r="C16" s="64"/>
-      <c r="D16" s="64"/>
-      <c r="E16" s="64"/>
-      <c r="F16" s="64"/>
-      <c r="G16" s="64"/>
-      <c r="H16" s="64"/>
-      <c r="I16" s="64"/>
-      <c r="J16" s="64"/>
-      <c r="K16" s="64"/>
-      <c r="L16" s="64"/>
-      <c r="M16" s="64"/>
-      <c r="N16" s="64"/>
-      <c r="O16" s="64"/>
-      <c r="P16" s="64"/>
-      <c r="Q16" s="64"/>
-      <c r="R16" s="64"/>
-      <c r="S16" s="34" t="s">
+      <c r="B16" s="85"/>
+      <c r="C16" s="85"/>
+      <c r="D16" s="85"/>
+      <c r="E16" s="85"/>
+      <c r="F16" s="85"/>
+      <c r="G16" s="85"/>
+      <c r="H16" s="85"/>
+      <c r="I16" s="85"/>
+      <c r="J16" s="85"/>
+      <c r="K16" s="85"/>
+      <c r="L16" s="85"/>
+      <c r="M16" s="85"/>
+      <c r="N16" s="85"/>
+      <c r="O16" s="85"/>
+      <c r="P16" s="85"/>
+      <c r="Q16" s="85"/>
+      <c r="R16" s="85"/>
+      <c r="S16" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="T16" s="34"/>
-      <c r="U16" s="34"/>
-      <c r="V16" s="34"/>
+      <c r="T16" s="51"/>
+      <c r="U16" s="51"/>
+      <c r="V16" s="51"/>
     </row>
     <row r="17" spans="1:22" s="14" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="64" t="s">
+      <c r="A17" s="85" t="s">
         <v>50</v>
       </c>
-      <c r="B17" s="64"/>
-      <c r="C17" s="64"/>
-      <c r="D17" s="64"/>
-      <c r="E17" s="64"/>
-      <c r="F17" s="64"/>
-      <c r="G17" s="64"/>
-      <c r="H17" s="64"/>
-      <c r="I17" s="64"/>
-      <c r="J17" s="64"/>
-      <c r="K17" s="64"/>
-      <c r="L17" s="64"/>
-      <c r="M17" s="64"/>
-      <c r="N17" s="64"/>
-      <c r="O17" s="64"/>
-      <c r="P17" s="64"/>
-      <c r="Q17" s="64"/>
-      <c r="R17" s="64"/>
-      <c r="S17" s="34" t="s">
+      <c r="B17" s="85"/>
+      <c r="C17" s="85"/>
+      <c r="D17" s="85"/>
+      <c r="E17" s="85"/>
+      <c r="F17" s="85"/>
+      <c r="G17" s="85"/>
+      <c r="H17" s="85"/>
+      <c r="I17" s="85"/>
+      <c r="J17" s="85"/>
+      <c r="K17" s="85"/>
+      <c r="L17" s="85"/>
+      <c r="M17" s="85"/>
+      <c r="N17" s="85"/>
+      <c r="O17" s="85"/>
+      <c r="P17" s="85"/>
+      <c r="Q17" s="85"/>
+      <c r="R17" s="85"/>
+      <c r="S17" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="T17" s="34"/>
-      <c r="U17" s="34"/>
-      <c r="V17" s="34"/>
+      <c r="T17" s="51"/>
+      <c r="U17" s="51"/>
+      <c r="V17" s="51"/>
     </row>
     <row r="18" spans="1:22" s="27" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="10"/>
@@ -1572,439 +1572,439 @@
       <c r="B20" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="C20" s="31" t="s">
+      <c r="C20" s="87" t="s">
         <v>38</v>
       </c>
-      <c r="D20" s="36"/>
+      <c r="D20" s="88"/>
       <c r="E20" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="F20" s="31" t="s">
+      <c r="F20" s="87" t="s">
         <v>39</v>
       </c>
-      <c r="G20" s="31"/>
-      <c r="H20" s="32" t="s">
+      <c r="G20" s="87"/>
+      <c r="H20" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="I20" s="32"/>
-      <c r="J20" s="31" t="s">
+      <c r="I20" s="30"/>
+      <c r="J20" s="87" t="s">
         <v>28</v>
       </c>
-      <c r="K20" s="31"/>
-      <c r="L20" s="31"/>
+      <c r="K20" s="87"/>
+      <c r="L20" s="87"/>
       <c r="M20" s="24" t="str">
         <f>IF(H20="(-5)..0..5","5",IF(H20="0..5","5",IF(H20="0..2,5..5","5","20")))</f>
         <v>20</v>
       </c>
-      <c r="N20" s="43" t="s">
+      <c r="N20" s="69" t="s">
         <v>43</v>
       </c>
-      <c r="O20" s="43"/>
-      <c r="P20" s="43"/>
-      <c r="Q20" s="43"/>
-      <c r="R20" s="43"/>
-      <c r="S20" s="43"/>
-      <c r="T20" s="43"/>
-      <c r="U20" s="43"/>
-      <c r="V20" s="43"/>
+      <c r="O20" s="69"/>
+      <c r="P20" s="69"/>
+      <c r="Q20" s="69"/>
+      <c r="R20" s="69"/>
+      <c r="S20" s="69"/>
+      <c r="T20" s="69"/>
+      <c r="U20" s="69"/>
+      <c r="V20" s="69"/>
     </row>
     <row r="21" spans="1:22" s="7" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="31" t="s">
+      <c r="A21" s="87" t="s">
         <v>27</v>
       </c>
-      <c r="B21" s="31"/>
-      <c r="C21" s="31" t="s">
+      <c r="B21" s="87"/>
+      <c r="C21" s="87" t="s">
         <v>32</v>
       </c>
-      <c r="D21" s="31"/>
-      <c r="E21" s="31"/>
-      <c r="F21" s="31"/>
-      <c r="G21" s="31"/>
-      <c r="H21" s="31"/>
-      <c r="I21" s="37" t="s">
+      <c r="D21" s="87"/>
+      <c r="E21" s="87"/>
+      <c r="F21" s="87"/>
+      <c r="G21" s="87"/>
+      <c r="H21" s="87"/>
+      <c r="I21" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="J21" s="38"/>
-      <c r="K21" s="38"/>
-      <c r="L21" s="38"/>
-      <c r="M21" s="38"/>
-      <c r="N21" s="39"/>
-      <c r="O21" s="37" t="s">
+      <c r="J21" s="44"/>
+      <c r="K21" s="44"/>
+      <c r="L21" s="44"/>
+      <c r="M21" s="44"/>
+      <c r="N21" s="45"/>
+      <c r="O21" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="P21" s="38"/>
-      <c r="Q21" s="38"/>
-      <c r="R21" s="38"/>
-      <c r="S21" s="38"/>
-      <c r="T21" s="39"/>
-      <c r="U21" s="31" t="s">
+      <c r="P21" s="44"/>
+      <c r="Q21" s="44"/>
+      <c r="R21" s="44"/>
+      <c r="S21" s="44"/>
+      <c r="T21" s="45"/>
+      <c r="U21" s="87" t="s">
         <v>44</v>
       </c>
-      <c r="V21" s="34"/>
+      <c r="V21" s="51"/>
     </row>
     <row r="22" spans="1:22" s="7" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="31"/>
-      <c r="B22" s="31"/>
-      <c r="C22" s="31" t="s">
+      <c r="A22" s="87"/>
+      <c r="B22" s="87"/>
+      <c r="C22" s="87" t="s">
         <v>34</v>
       </c>
-      <c r="D22" s="31"/>
-      <c r="E22" s="31"/>
-      <c r="F22" s="31" t="s">
+      <c r="D22" s="87"/>
+      <c r="E22" s="87"/>
+      <c r="F22" s="87" t="s">
         <v>35</v>
       </c>
-      <c r="G22" s="31"/>
-      <c r="H22" s="31"/>
-      <c r="I22" s="40"/>
-      <c r="J22" s="41"/>
-      <c r="K22" s="41"/>
-      <c r="L22" s="41"/>
-      <c r="M22" s="41"/>
-      <c r="N22" s="42"/>
-      <c r="O22" s="40"/>
-      <c r="P22" s="41"/>
-      <c r="Q22" s="41"/>
-      <c r="R22" s="41"/>
-      <c r="S22" s="41"/>
-      <c r="T22" s="42"/>
-      <c r="U22" s="34"/>
-      <c r="V22" s="34"/>
+      <c r="G22" s="87"/>
+      <c r="H22" s="87"/>
+      <c r="I22" s="46"/>
+      <c r="J22" s="47"/>
+      <c r="K22" s="47"/>
+      <c r="L22" s="47"/>
+      <c r="M22" s="47"/>
+      <c r="N22" s="48"/>
+      <c r="O22" s="46"/>
+      <c r="P22" s="47"/>
+      <c r="Q22" s="47"/>
+      <c r="R22" s="47"/>
+      <c r="S22" s="47"/>
+      <c r="T22" s="48"/>
+      <c r="U22" s="51"/>
+      <c r="V22" s="51"/>
     </row>
     <row r="23" spans="1:22" s="7" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="35">
+      <c r="A23" s="29">
         <v>0.2</v>
       </c>
-      <c r="B23" s="35"/>
-      <c r="C23" s="32" t="e">
+      <c r="B23" s="29"/>
+      <c r="C23" s="30" t="e">
         <f>$I$5*A23</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D23" s="32"/>
-      <c r="E23" s="32"/>
-      <c r="F23" s="32">
+      <c r="D23" s="30"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="30">
         <f>$M$20*A23</f>
         <v>4</v>
       </c>
-      <c r="G23" s="32"/>
-      <c r="H23" s="32"/>
-      <c r="I23" s="79" t="s">
+      <c r="G23" s="30"/>
+      <c r="H23" s="30"/>
+      <c r="I23" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="J23" s="80"/>
-      <c r="K23" s="80"/>
-      <c r="L23" s="80"/>
-      <c r="M23" s="80"/>
-      <c r="N23" s="81"/>
-      <c r="O23" s="82" t="e">
+      <c r="J23" s="32"/>
+      <c r="K23" s="32"/>
+      <c r="L23" s="32"/>
+      <c r="M23" s="32"/>
+      <c r="N23" s="33"/>
+      <c r="O23" s="34" t="e">
         <f>(I23-$F23)/$M$20*100</f>
         <v>#VALUE!</v>
       </c>
-      <c r="P23" s="83"/>
-      <c r="Q23" s="83"/>
-      <c r="R23" s="83"/>
-      <c r="S23" s="83"/>
-      <c r="T23" s="84"/>
-      <c r="U23" s="85">
+      <c r="P23" s="35"/>
+      <c r="Q23" s="35"/>
+      <c r="R23" s="35"/>
+      <c r="S23" s="35"/>
+      <c r="T23" s="36"/>
+      <c r="U23" s="37">
         <f>$E$5</f>
         <v>1</v>
       </c>
-      <c r="V23" s="86"/>
+      <c r="V23" s="38"/>
     </row>
     <row r="24" spans="1:22" s="7" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="35">
+      <c r="A24" s="29">
         <v>0.4</v>
       </c>
-      <c r="B24" s="35"/>
-      <c r="C24" s="32" t="e">
+      <c r="B24" s="29"/>
+      <c r="C24" s="30" t="e">
         <f t="shared" ref="C24:C28" si="0">$I$5*A24</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D24" s="32"/>
-      <c r="E24" s="32"/>
-      <c r="F24" s="32">
+      <c r="D24" s="30"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="30">
         <f t="shared" ref="F24:F28" si="1">$M$20*A24</f>
         <v>8</v>
       </c>
-      <c r="G24" s="32"/>
-      <c r="H24" s="32"/>
-      <c r="I24" s="79" t="s">
+      <c r="G24" s="30"/>
+      <c r="H24" s="30"/>
+      <c r="I24" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="J24" s="80"/>
-      <c r="K24" s="80"/>
-      <c r="L24" s="80"/>
-      <c r="M24" s="80"/>
-      <c r="N24" s="81"/>
-      <c r="O24" s="82" t="e">
+      <c r="J24" s="32"/>
+      <c r="K24" s="32"/>
+      <c r="L24" s="32"/>
+      <c r="M24" s="32"/>
+      <c r="N24" s="33"/>
+      <c r="O24" s="34" t="e">
         <f t="shared" ref="O24:O28" si="2">(I24-$F24)/$M$20*100</f>
         <v>#VALUE!</v>
       </c>
-      <c r="P24" s="83"/>
-      <c r="Q24" s="83"/>
-      <c r="R24" s="83"/>
-      <c r="S24" s="83"/>
-      <c r="T24" s="84"/>
-      <c r="U24" s="87"/>
-      <c r="V24" s="88"/>
+      <c r="P24" s="35"/>
+      <c r="Q24" s="35"/>
+      <c r="R24" s="35"/>
+      <c r="S24" s="35"/>
+      <c r="T24" s="36"/>
+      <c r="U24" s="39"/>
+      <c r="V24" s="40"/>
     </row>
     <row r="25" spans="1:22" s="7" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="35">
+      <c r="A25" s="29">
         <v>0.6</v>
       </c>
-      <c r="B25" s="35"/>
-      <c r="C25" s="32" t="e">
+      <c r="B25" s="29"/>
+      <c r="C25" s="30" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="D25" s="32"/>
-      <c r="E25" s="32"/>
-      <c r="F25" s="32">
+      <c r="D25" s="30"/>
+      <c r="E25" s="30"/>
+      <c r="F25" s="30">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="G25" s="32"/>
-      <c r="H25" s="32"/>
-      <c r="I25" s="79" t="s">
+      <c r="G25" s="30"/>
+      <c r="H25" s="30"/>
+      <c r="I25" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="J25" s="80"/>
-      <c r="K25" s="80"/>
-      <c r="L25" s="80"/>
-      <c r="M25" s="80"/>
-      <c r="N25" s="81"/>
-      <c r="O25" s="82" t="e">
+      <c r="J25" s="32"/>
+      <c r="K25" s="32"/>
+      <c r="L25" s="32"/>
+      <c r="M25" s="32"/>
+      <c r="N25" s="33"/>
+      <c r="O25" s="34" t="e">
         <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
-      <c r="P25" s="83"/>
-      <c r="Q25" s="83"/>
-      <c r="R25" s="83"/>
-      <c r="S25" s="83"/>
-      <c r="T25" s="84"/>
-      <c r="U25" s="87"/>
-      <c r="V25" s="88"/>
+      <c r="P25" s="35"/>
+      <c r="Q25" s="35"/>
+      <c r="R25" s="35"/>
+      <c r="S25" s="35"/>
+      <c r="T25" s="36"/>
+      <c r="U25" s="39"/>
+      <c r="V25" s="40"/>
     </row>
     <row r="26" spans="1:22" s="7" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="35">
+      <c r="A26" s="29">
         <v>0.8</v>
       </c>
-      <c r="B26" s="35"/>
-      <c r="C26" s="32" t="e">
+      <c r="B26" s="29"/>
+      <c r="C26" s="30" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="D26" s="32"/>
-      <c r="E26" s="32"/>
-      <c r="F26" s="32">
+      <c r="D26" s="30"/>
+      <c r="E26" s="30"/>
+      <c r="F26" s="30">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="G26" s="32"/>
-      <c r="H26" s="32"/>
-      <c r="I26" s="79" t="s">
+      <c r="G26" s="30"/>
+      <c r="H26" s="30"/>
+      <c r="I26" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="J26" s="80"/>
-      <c r="K26" s="80"/>
-      <c r="L26" s="80"/>
-      <c r="M26" s="80"/>
-      <c r="N26" s="81"/>
-      <c r="O26" s="82" t="e">
+      <c r="J26" s="32"/>
+      <c r="K26" s="32"/>
+      <c r="L26" s="32"/>
+      <c r="M26" s="32"/>
+      <c r="N26" s="33"/>
+      <c r="O26" s="34" t="e">
         <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
-      <c r="P26" s="83"/>
-      <c r="Q26" s="83"/>
-      <c r="R26" s="83"/>
-      <c r="S26" s="83"/>
-      <c r="T26" s="84"/>
-      <c r="U26" s="87"/>
-      <c r="V26" s="88"/>
+      <c r="P26" s="35"/>
+      <c r="Q26" s="35"/>
+      <c r="R26" s="35"/>
+      <c r="S26" s="35"/>
+      <c r="T26" s="36"/>
+      <c r="U26" s="39"/>
+      <c r="V26" s="40"/>
     </row>
     <row r="27" spans="1:22" s="7" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="35">
+      <c r="A27" s="29">
         <v>1</v>
       </c>
-      <c r="B27" s="35"/>
-      <c r="C27" s="32" t="e">
+      <c r="B27" s="29"/>
+      <c r="C27" s="30" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="D27" s="32"/>
-      <c r="E27" s="32"/>
-      <c r="F27" s="32">
+      <c r="D27" s="30"/>
+      <c r="E27" s="30"/>
+      <c r="F27" s="30">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="G27" s="32"/>
-      <c r="H27" s="32"/>
-      <c r="I27" s="79" t="s">
+      <c r="G27" s="30"/>
+      <c r="H27" s="30"/>
+      <c r="I27" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="J27" s="80"/>
-      <c r="K27" s="80"/>
-      <c r="L27" s="80"/>
-      <c r="M27" s="80"/>
-      <c r="N27" s="81"/>
-      <c r="O27" s="82" t="e">
+      <c r="J27" s="32"/>
+      <c r="K27" s="32"/>
+      <c r="L27" s="32"/>
+      <c r="M27" s="32"/>
+      <c r="N27" s="33"/>
+      <c r="O27" s="34" t="e">
         <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
-      <c r="P27" s="83"/>
-      <c r="Q27" s="83"/>
-      <c r="R27" s="83"/>
-      <c r="S27" s="83"/>
-      <c r="T27" s="84"/>
-      <c r="U27" s="87"/>
-      <c r="V27" s="88"/>
+      <c r="P27" s="35"/>
+      <c r="Q27" s="35"/>
+      <c r="R27" s="35"/>
+      <c r="S27" s="35"/>
+      <c r="T27" s="36"/>
+      <c r="U27" s="39"/>
+      <c r="V27" s="40"/>
     </row>
     <row r="28" spans="1:22" s="7" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="35">
+      <c r="A28" s="29">
         <v>0.8</v>
       </c>
-      <c r="B28" s="35"/>
-      <c r="C28" s="32" t="e">
+      <c r="B28" s="29"/>
+      <c r="C28" s="30" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="D28" s="32"/>
-      <c r="E28" s="32"/>
-      <c r="F28" s="32">
+      <c r="D28" s="30"/>
+      <c r="E28" s="30"/>
+      <c r="F28" s="30">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="G28" s="32"/>
-      <c r="H28" s="32"/>
-      <c r="I28" s="79" t="s">
+      <c r="G28" s="30"/>
+      <c r="H28" s="30"/>
+      <c r="I28" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="J28" s="80"/>
-      <c r="K28" s="80"/>
-      <c r="L28" s="80"/>
-      <c r="M28" s="80"/>
-      <c r="N28" s="81"/>
-      <c r="O28" s="82" t="e">
+      <c r="J28" s="32"/>
+      <c r="K28" s="32"/>
+      <c r="L28" s="32"/>
+      <c r="M28" s="32"/>
+      <c r="N28" s="33"/>
+      <c r="O28" s="34" t="e">
         <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
-      <c r="P28" s="83"/>
-      <c r="Q28" s="83"/>
-      <c r="R28" s="83"/>
-      <c r="S28" s="83"/>
-      <c r="T28" s="84"/>
-      <c r="U28" s="87"/>
-      <c r="V28" s="88"/>
+      <c r="P28" s="35"/>
+      <c r="Q28" s="35"/>
+      <c r="R28" s="35"/>
+      <c r="S28" s="35"/>
+      <c r="T28" s="36"/>
+      <c r="U28" s="39"/>
+      <c r="V28" s="40"/>
     </row>
     <row r="29" spans="1:22" s="7" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="35">
+      <c r="A29" s="29">
         <v>0.6</v>
       </c>
-      <c r="B29" s="35"/>
-      <c r="C29" s="32" t="e">
+      <c r="B29" s="29"/>
+      <c r="C29" s="30" t="e">
         <f t="shared" ref="C29:C31" si="3">$I$5*A29</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D29" s="32"/>
-      <c r="E29" s="32"/>
-      <c r="F29" s="32">
+      <c r="D29" s="30"/>
+      <c r="E29" s="30"/>
+      <c r="F29" s="30">
         <f t="shared" ref="F29:F31" si="4">$M$20*A29</f>
         <v>12</v>
       </c>
-      <c r="G29" s="32"/>
-      <c r="H29" s="32"/>
-      <c r="I29" s="79" t="s">
+      <c r="G29" s="30"/>
+      <c r="H29" s="30"/>
+      <c r="I29" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="J29" s="80"/>
-      <c r="K29" s="80"/>
-      <c r="L29" s="80"/>
-      <c r="M29" s="80"/>
-      <c r="N29" s="81"/>
-      <c r="O29" s="82" t="e">
+      <c r="J29" s="32"/>
+      <c r="K29" s="32"/>
+      <c r="L29" s="32"/>
+      <c r="M29" s="32"/>
+      <c r="N29" s="33"/>
+      <c r="O29" s="34" t="e">
         <f t="shared" ref="O29:O31" si="5">(I29-$F29)/$M$20*100</f>
         <v>#VALUE!</v>
       </c>
-      <c r="P29" s="83"/>
-      <c r="Q29" s="83"/>
-      <c r="R29" s="83"/>
-      <c r="S29" s="83"/>
-      <c r="T29" s="84"/>
-      <c r="U29" s="87"/>
-      <c r="V29" s="88"/>
+      <c r="P29" s="35"/>
+      <c r="Q29" s="35"/>
+      <c r="R29" s="35"/>
+      <c r="S29" s="35"/>
+      <c r="T29" s="36"/>
+      <c r="U29" s="39"/>
+      <c r="V29" s="40"/>
     </row>
     <row r="30" spans="1:22" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="35">
+      <c r="A30" s="29">
         <v>0.4</v>
       </c>
-      <c r="B30" s="35"/>
-      <c r="C30" s="32" t="e">
+      <c r="B30" s="29"/>
+      <c r="C30" s="30" t="e">
         <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
-      <c r="D30" s="32"/>
-      <c r="E30" s="32"/>
-      <c r="F30" s="32">
+      <c r="D30" s="30"/>
+      <c r="E30" s="30"/>
+      <c r="F30" s="30">
         <f t="shared" si="4"/>
         <v>8</v>
       </c>
-      <c r="G30" s="32"/>
-      <c r="H30" s="32"/>
-      <c r="I30" s="79" t="s">
+      <c r="G30" s="30"/>
+      <c r="H30" s="30"/>
+      <c r="I30" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="J30" s="80"/>
-      <c r="K30" s="80"/>
-      <c r="L30" s="80"/>
-      <c r="M30" s="80"/>
-      <c r="N30" s="81"/>
-      <c r="O30" s="82" t="e">
+      <c r="J30" s="32"/>
+      <c r="K30" s="32"/>
+      <c r="L30" s="32"/>
+      <c r="M30" s="32"/>
+      <c r="N30" s="33"/>
+      <c r="O30" s="34" t="e">
         <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
-      <c r="P30" s="83"/>
-      <c r="Q30" s="83"/>
-      <c r="R30" s="83"/>
-      <c r="S30" s="83"/>
-      <c r="T30" s="84"/>
-      <c r="U30" s="87"/>
-      <c r="V30" s="88"/>
+      <c r="P30" s="35"/>
+      <c r="Q30" s="35"/>
+      <c r="R30" s="35"/>
+      <c r="S30" s="35"/>
+      <c r="T30" s="36"/>
+      <c r="U30" s="39"/>
+      <c r="V30" s="40"/>
     </row>
     <row r="31" spans="1:22" s="7" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="35">
+      <c r="A31" s="29">
         <v>0.2</v>
       </c>
-      <c r="B31" s="35"/>
-      <c r="C31" s="32" t="e">
+      <c r="B31" s="29"/>
+      <c r="C31" s="30" t="e">
         <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
-      <c r="D31" s="32"/>
-      <c r="E31" s="32"/>
-      <c r="F31" s="32">
+      <c r="D31" s="30"/>
+      <c r="E31" s="30"/>
+      <c r="F31" s="30">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="G31" s="32"/>
-      <c r="H31" s="32"/>
-      <c r="I31" s="79" t="s">
+      <c r="G31" s="30"/>
+      <c r="H31" s="30"/>
+      <c r="I31" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="J31" s="80"/>
-      <c r="K31" s="80"/>
-      <c r="L31" s="80"/>
-      <c r="M31" s="80"/>
-      <c r="N31" s="81"/>
-      <c r="O31" s="82" t="e">
+      <c r="J31" s="32"/>
+      <c r="K31" s="32"/>
+      <c r="L31" s="32"/>
+      <c r="M31" s="32"/>
+      <c r="N31" s="33"/>
+      <c r="O31" s="34" t="e">
         <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
-      <c r="P31" s="83"/>
-      <c r="Q31" s="83"/>
-      <c r="R31" s="83"/>
-      <c r="S31" s="83"/>
-      <c r="T31" s="84"/>
-      <c r="U31" s="89"/>
-      <c r="V31" s="90"/>
+      <c r="P31" s="35"/>
+      <c r="Q31" s="35"/>
+      <c r="R31" s="35"/>
+      <c r="S31" s="35"/>
+      <c r="T31" s="36"/>
+      <c r="U31" s="41"/>
+      <c r="V31" s="42"/>
     </row>
     <row r="32" spans="1:22" s="7" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
@@ -2129,38 +2129,38 @@
     </row>
     <row r="62" spans="1:22" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="63" spans="1:22" s="15" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="33" t="s">
+      <c r="A63" s="90" t="s">
         <v>40</v>
       </c>
-      <c r="B63" s="29"/>
-      <c r="C63" s="29"/>
-      <c r="D63" s="29" t="s">
+      <c r="B63" s="57"/>
+      <c r="C63" s="57"/>
+      <c r="D63" s="57" t="s">
         <v>29</v>
       </c>
-      <c r="E63" s="29"/>
-      <c r="F63" s="30"/>
+      <c r="E63" s="57"/>
+      <c r="F63" s="89"/>
       <c r="G63" s="19"/>
       <c r="H63" s="19"/>
-      <c r="I63" s="33" t="s">
+      <c r="I63" s="90" t="s">
         <v>41</v>
       </c>
-      <c r="J63" s="29"/>
-      <c r="K63" s="29"/>
-      <c r="L63" s="29"/>
-      <c r="M63" s="29"/>
-      <c r="N63" s="30"/>
+      <c r="J63" s="57"/>
+      <c r="K63" s="57"/>
+      <c r="L63" s="57"/>
+      <c r="M63" s="57"/>
+      <c r="N63" s="89"/>
       <c r="O63" s="19"/>
       <c r="P63" s="19"/>
-      <c r="Q63" s="33" t="s">
+      <c r="Q63" s="90" t="s">
         <v>42</v>
       </c>
-      <c r="R63" s="29"/>
-      <c r="S63" s="29"/>
-      <c r="T63" s="29" t="s">
+      <c r="R63" s="57"/>
+      <c r="S63" s="57"/>
+      <c r="T63" s="57" t="s">
         <v>29</v>
       </c>
-      <c r="U63" s="29"/>
-      <c r="V63" s="30"/>
+      <c r="U63" s="57"/>
+      <c r="V63" s="89"/>
     </row>
     <row r="64" spans="1:22" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="65" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2247,60 +2247,38 @@
     <row r="146" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="110">
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="F31:H31"/>
-    <mergeCell ref="I31:N31"/>
-    <mergeCell ref="O31:T31"/>
-    <mergeCell ref="U23:V31"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="I29:N29"/>
-    <mergeCell ref="O29:T29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="F30:H30"/>
-    <mergeCell ref="I30:N30"/>
-    <mergeCell ref="O30:T30"/>
-    <mergeCell ref="O21:T22"/>
-    <mergeCell ref="I23:N23"/>
-    <mergeCell ref="I24:N24"/>
-    <mergeCell ref="I25:N25"/>
-    <mergeCell ref="I26:N26"/>
-    <mergeCell ref="I27:N27"/>
-    <mergeCell ref="I28:N28"/>
-    <mergeCell ref="O23:T23"/>
-    <mergeCell ref="O24:T24"/>
-    <mergeCell ref="O25:T25"/>
-    <mergeCell ref="O26:T26"/>
-    <mergeCell ref="O27:T27"/>
-    <mergeCell ref="O28:T28"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="N7:U7"/>
-    <mergeCell ref="N8:Q8"/>
-    <mergeCell ref="R8:U8"/>
-    <mergeCell ref="L1:V1"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="E3:I3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="N5:P5"/>
-    <mergeCell ref="R5:T5"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="R9:U9"/>
-    <mergeCell ref="N13:Q13"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="R11:U11"/>
-    <mergeCell ref="R12:U12"/>
-    <mergeCell ref="R3:V3"/>
-    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="U21:V22"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A21:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="I21:N22"/>
+    <mergeCell ref="C21:H21"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="T63:V63"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="A63:C63"/>
+    <mergeCell ref="D63:F63"/>
+    <mergeCell ref="I63:K63"/>
+    <mergeCell ref="L63:N63"/>
+    <mergeCell ref="Q63:S63"/>
     <mergeCell ref="N20:V20"/>
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="F8:I8"/>
@@ -2325,38 +2303,60 @@
     <mergeCell ref="F11:I11"/>
     <mergeCell ref="F12:I12"/>
     <mergeCell ref="C20:D20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="I21:N22"/>
-    <mergeCell ref="C21:H21"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="T63:V63"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="F27:H27"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="A63:C63"/>
-    <mergeCell ref="D63:F63"/>
-    <mergeCell ref="I63:K63"/>
-    <mergeCell ref="L63:N63"/>
-    <mergeCell ref="Q63:S63"/>
-    <mergeCell ref="U21:V22"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A21:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="R9:U9"/>
+    <mergeCell ref="N13:Q13"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="R11:U11"/>
+    <mergeCell ref="R12:U12"/>
+    <mergeCell ref="R3:V3"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="N7:U7"/>
+    <mergeCell ref="N8:Q8"/>
+    <mergeCell ref="R8:U8"/>
+    <mergeCell ref="L1:V1"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="E3:I3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="N5:P5"/>
+    <mergeCell ref="R5:T5"/>
+    <mergeCell ref="O21:T22"/>
+    <mergeCell ref="I23:N23"/>
+    <mergeCell ref="I24:N24"/>
+    <mergeCell ref="I25:N25"/>
+    <mergeCell ref="I26:N26"/>
+    <mergeCell ref="I27:N27"/>
+    <mergeCell ref="I28:N28"/>
+    <mergeCell ref="O23:T23"/>
+    <mergeCell ref="O24:T24"/>
+    <mergeCell ref="O25:T25"/>
+    <mergeCell ref="O26:T26"/>
+    <mergeCell ref="O27:T27"/>
+    <mergeCell ref="O28:T28"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="F31:H31"/>
+    <mergeCell ref="I31:N31"/>
+    <mergeCell ref="O31:T31"/>
+    <mergeCell ref="U23:V31"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="I29:N29"/>
+    <mergeCell ref="O29:T29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="I30:N30"/>
+    <mergeCell ref="O30:T30"/>
+    <mergeCell ref="F26:H26"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.25196850393700793" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -2370,7 +2370,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
